--- a/medicine/Enfance/Claire_McNab/Claire_McNab.xlsx
+++ b/medicine/Enfance/Claire_McNab/Claire_McNab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claire McNab, née Claire Carmichael le 4 août 1940[1] à Melbourne, est une femme de lettres australienne, auteur de plusieurs romans policiers et d'espionnage dont les héroïnes sont lesbiennes. En outre, elle signe de son patronyme des œuvres de science-fiction appartenant à la littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claire McNab, née Claire Carmichael le 4 août 1940 à Melbourne, est une femme de lettres australienne, auteur de plusieurs romans policiers et d'espionnage dont les héroïnes sont lesbiennes. En outre, elle signe de son patronyme des œuvres de science-fiction appartenant à la littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Professeur dans un High school de Sydney, Claire McNab commence en parallèle à rédiger des comédies et divers textes avant d'abandonner son poste pour se consacrer à temps plein à l'écriture au milieu des années 1980. 
 En 1994, après être devenue amoureuse d'une Américaine, elle déménage à Los Angeles. Elle enseigne les techniques de l'écriture à l'Université de Californie à Los Angeles.
@@ -549,9 +563,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans policiers
-Série Carol Ashton
-Lessons In Murder (1988) Publié en français sous le titre Leçons  de meurtre, traduit par Marc-Éric Hédenne, Montblanc, H &amp; O éditions, 2001  (ISBN 2-84547-025-8)
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Carol Ashton</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lessons In Murder (1988) Publié en français sous le titre Leçons  de meurtre, traduit par Marc-Éric Hédenne, Montblanc, H &amp; O éditions, 2001  (ISBN 2-84547-025-8)
 Fatal Reunion (1989)
 Death Down Under (1989)
 Cop Out (1991)
@@ -567,42 +589,336 @@
 Accidental Murder (2002)
 Blood Link (2003)
 Fall Guy (2004)
-Lethal Care (2012)
-Série Kylie Kendall
-Wombat Strategy (2004) Publié en français sous le titre La Tactique du wombat, traduit par Cécile Dumas, Paris, KTM éditions, 2006  (ISBN 2-913066-25-9)
+Lethal Care (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claire_McNab</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_McNab</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Kylie Kendall</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Wombat Strategy (2004) Publié en français sous le titre La Tactique du wombat, traduit par Cécile Dumas, Paris, KTM éditions, 2006  (ISBN 2-913066-25-9)
 Kookaburra Gambit (2005) Publié en français sous le titre Le Coup du kookaburra, traduit par Cécile Dumas, Paris, KTM éditions, 2008  (ISBN 978-2-913066-36-6)
 The Quokka Question (2005)
 Dingo Dilemma (2006)
-Platypus Ploy (2007)
-Autre roman policier
-Deadly Friends (1997), court roman
-Romans d'espionnage
-Série Denise Cleever
-Murder Undercover (2000) Publié en français sous le titre L'Île du double jeu, traduit par Cécile Dumas, Paris, KTM éditions, 2006  (ISBN 2-913066-28-3)
+Platypus Ploy (2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claire_McNab</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_McNab</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autre roman policier</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Deadly Friends (1997), court roman</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Claire_McNab</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_McNab</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans d'espionnage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Denise Cleever</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Murder Undercover (2000) Publié en français sous le titre L'Île du double jeu, traduit par Cécile Dumas, Paris, KTM éditions, 2006  (ISBN 2-913066-28-3)
 Death Understood (2000) Publié en français sous le titre Les Disparus de l'Outback, traduit par Cécile Dumas, Paris, KTM éditions, 2000  (ISBN 978-2-913066-39-7)
 Out of Sight (2001)
 Recognition Factor (2002)
 Death by Death (2003)
-Murder at Random (2005)
-Romans lesbiens
-Under the Southern Cross (1992) Publié en français sous le titre Antipodes, traduit par Cécile Dumas, Paris, KTM éditions, 2002  (ISBN 2-913066-12-7)
+Murder at Random (2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Claire_McNab</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_McNab</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans lesbiens</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Under the Southern Cross (1992) Publié en français sous le titre Antipodes, traduit par Cécile Dumas, Paris, KTM éditions, 2002  (ISBN 2-913066-12-7)
 Off Key (1992)
 Silent Heart (1993) Publié en français sous le titre À l'index, traduit par Emma Eckhert, Paris, KTM éditions, 2011  (ISBN 978-2-913066-51-9)
 Writing My Love (2006)
-Aspects of the Heart (2009)
-Essai
-The Loving Lesbian (1997), en collaboration avec Sharon Gedan
-Romans de science-fiction pour la jeunesse signés Claire Carmichael
-Série Fabricants
-Originator (1998)
+Aspects of the Heart (2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Claire_McNab</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_McNab</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Essai</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Loving Lesbian (1997), en collaboration avec Sharon Gedan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Claire_McNab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_McNab</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans de science-fiction pour la jeunesse signés Claire Carmichael</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Fabricants</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Originator (1998)
 Fabricant (1999)
-Incognito (2000)
-Trilogie Virtual Realities
-Virtual Realities (1992)
+Incognito (2000)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Claire_McNab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_McNab</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans de science-fiction pour la jeunesse signés Claire Carmichael</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Trilogie Virtual Realities</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Virtual Realities (1992)
 Cybersaur (1993)
-Worldwarp (1994)
-Autres romans de science-fiction
-The Mystery of the Haunted Dog (1991)
+Worldwarp (1994)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Claire_McNab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_McNab</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans de science-fiction pour la jeunesse signés Claire Carmichael</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Autres romans de science-fiction</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>The Mystery of the Haunted Dog (1991)
 The Mystery of the Alien Spacecraft (1992)
 Doctor Death (1997)
 Saving Aunt Alice (2001)
@@ -612,31 +928,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Claire_McNab</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Claire_McNab</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Claire_McNab</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_McNab</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>2006 : Prix Alice B Readers</t>
         </is>
